--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKINV125-001 - Profile Reksa - Investasi - Reksadana Hapus Data.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKINV125-001 - Profile Reksa - Investasi - Reksadana Hapus Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6F4E7B-15C6-4673-A164-DFB5383A4D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578E5D13-9AC2-4A6F-90B2-03A88135D062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,19 +88,19 @@
     <t>Normal - Investasi - Reksadana</t>
   </si>
   <si>
+    <t>Analisis Investasi</t>
+  </si>
+  <si>
+    <t>DPLKINV125-001</t>
+  </si>
+  <si>
     <t>Username : 31246;
 Password : bni1234;
 Role : 18/19/20/21 - Pimpinan Kelompok Investasi/Pengelolan Investasi/Analis;
-Kode Reksadana : Hasil Generate</t>
-  </si>
-  <si>
-    <t>Analisis Investasi</t>
-  </si>
-  <si>
-    <t>RD00014</t>
-  </si>
-  <si>
-    <t>DPLKINV125-001</t>
+Kode Reksadana : RD00015</t>
+  </si>
+  <si>
+    <t>RD00015</t>
   </si>
 </sst>
 </file>
@@ -486,8 +486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{653A54F0-D01B-49C0-BB41-F0FC7D2164BA}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,7 +569,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>21</v>
@@ -581,7 +581,7 @@
         <v>20</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G2" s="5">
         <v>31246</v>
@@ -590,7 +590,7 @@
         <v>12</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>14</v>
@@ -605,7 +605,7 @@
         <v>17</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P2" s="5"/>
       <c r="Q2" s="3"/>
